--- a/bin/Komponentenliste.xlsx
+++ b/bin/Komponentenliste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Komponentenliste</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Ballschieber</t>
   </si>
   <si>
-    <t>Büchse</t>
-  </si>
-  <si>
     <t>Endlager Gewindespinel</t>
   </si>
   <si>
@@ -173,6 +170,24 @@
   </si>
   <si>
     <t>Micro SD Karte</t>
+  </si>
+  <si>
+    <t>WLAN-USB Stick</t>
+  </si>
+  <si>
+    <t>Schrauben Schrittmotor M3*10</t>
+  </si>
+  <si>
+    <t>Unterlagscheibe Schrittmotor M3</t>
+  </si>
+  <si>
+    <t>Büchse Trapezgewindestange</t>
+  </si>
+  <si>
+    <t>Rohrschelle</t>
+  </si>
+  <si>
+    <t>Gew.sti. mit I-6kt und Kegelkuppe M3</t>
   </si>
 </sst>
 </file>
@@ -533,15 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -599,7 +614,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -615,7 +630,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -631,7 +646,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -655,15 +670,15 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -671,7 +686,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -679,7 +694,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -687,7 +702,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -703,7 +718,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -711,7 +726,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -719,7 +734,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -727,7 +742,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -735,7 +750,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -743,7 +758,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -759,7 +774,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -767,7 +782,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -775,7 +790,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -783,7 +798,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -791,7 +806,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -799,7 +814,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -807,7 +822,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -839,7 +854,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -847,7 +862,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -855,7 +870,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -863,7 +878,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -879,7 +894,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -887,7 +902,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -903,7 +918,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -911,7 +926,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -919,7 +934,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -927,7 +942,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -935,7 +950,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -943,7 +958,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -951,7 +966,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -959,7 +974,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>16</v>
@@ -971,6 +986,46 @@
       </c>
       <c r="B54">
         <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Komponentenliste.xlsx
+++ b/bin/Komponentenliste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Komponentenliste</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Kamera halter</t>
   </si>
   <si>
-    <t>Führungsstab</t>
-  </si>
-  <si>
     <t>Trapezgewindespindel halter</t>
   </si>
   <si>
@@ -188,6 +185,21 @@
   </si>
   <si>
     <t>Gew.sti. mit I-6kt und Kegelkuppe M3</t>
+  </si>
+  <si>
+    <t>Schrauben M6x100</t>
+  </si>
+  <si>
+    <t>Mutter M6</t>
+  </si>
+  <si>
+    <t>Unterlagscheibe M6</t>
+  </si>
+  <si>
+    <t>Führungsstab oben</t>
+  </si>
+  <si>
+    <t>Führungsstab unten</t>
   </si>
 </sst>
 </file>
@@ -548,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,7 +626,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -630,7 +642,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -646,7 +658,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -670,10 +682,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -694,7 +706,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -734,7 +746,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -742,7 +754,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -774,7 +786,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -798,7 +810,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -862,7 +874,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -894,7 +906,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -902,7 +914,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -942,7 +954,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -950,7 +962,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -966,7 +978,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -977,7 +989,7 @@
         <v>28</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -990,7 +1002,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -998,7 +1010,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -1006,7 +1018,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -1014,7 +1026,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1022,10 +1034,42 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59">
         <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Komponentenliste.xlsx
+++ b/bin/Komponentenliste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Komponentenliste</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Drehplatte</t>
   </si>
   <si>
-    <t>Stift</t>
-  </si>
-  <si>
     <t>Drehplatte hälter</t>
   </si>
   <si>
@@ -70,12 +67,6 @@
     <t>Endlager Gewindespinel</t>
   </si>
   <si>
-    <t xml:space="preserve">Lager halter </t>
-  </si>
-  <si>
-    <t>Lager halter 2</t>
-  </si>
-  <si>
     <t>Mutter Rad</t>
   </si>
   <si>
@@ -172,15 +163,9 @@
     <t>WLAN-USB Stick</t>
   </si>
   <si>
-    <t>Schrauben Schrittmotor M3*10</t>
-  </si>
-  <si>
     <t>Unterlagscheibe Schrittmotor M3</t>
   </si>
   <si>
-    <t>Büchse Trapezgewindestange</t>
-  </si>
-  <si>
     <t>Rohrschelle</t>
   </si>
   <si>
@@ -200,13 +185,94 @@
   </si>
   <si>
     <t>Führungsstab unten</t>
+  </si>
+  <si>
+    <t>Lager halter Rad</t>
+  </si>
+  <si>
+    <t>Lager halter Rad 2</t>
+  </si>
+  <si>
+    <t>Lager Trapezgewindespindel</t>
+  </si>
+  <si>
+    <t>Hutmutter M6</t>
+  </si>
+  <si>
+    <t>Hutmutter M3</t>
+  </si>
+  <si>
+    <t>Seitenführung</t>
+  </si>
+  <si>
+    <t>Schrauben  M3*10</t>
+  </si>
+  <si>
+    <t>Schrauben M3*14</t>
+  </si>
+  <si>
+    <t>Lager halter Trapezgewindespindel</t>
+  </si>
+  <si>
+    <t>Feder</t>
+  </si>
+  <si>
+    <t>Schrauben M4*</t>
+  </si>
+  <si>
+    <t>Mutter M4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unterlagscheibe M4 </t>
+  </si>
+  <si>
+    <t>Federführung</t>
+  </si>
+  <si>
+    <t>Unterlagscheibe Feder</t>
+  </si>
+  <si>
+    <t>Gegendruckplatte</t>
+  </si>
+  <si>
+    <t>Sensoren</t>
+  </si>
+  <si>
+    <t>Magnet</t>
+  </si>
+  <si>
+    <t>Drehsensor Halter</t>
+  </si>
+  <si>
+    <t>Wurfmechanismus</t>
+  </si>
+  <si>
+    <t>Ballnachschub</t>
+  </si>
+  <si>
+    <t>Ausrichtung Drehturm</t>
+  </si>
+  <si>
+    <t>Drehturm</t>
+  </si>
+  <si>
+    <t>Ballführungen</t>
+  </si>
+  <si>
+    <t>Stift 4*8</t>
+  </si>
+  <si>
+    <t>Stift 4*12</t>
+  </si>
+  <si>
+    <t>Gegendruckplatte Stützung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +291,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,12 +323,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -560,18 +634,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,7 +657,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -591,7 +666,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -600,97 +675,112 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I5" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -698,15 +788,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -714,7 +804,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -722,7 +812,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -730,15 +820,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -746,39 +836,39 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -786,23 +876,23 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -810,7 +900,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -818,7 +908,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -826,23 +916,23 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -850,63 +940,63 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37">
         <v>6</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -914,15 +1004,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -930,15 +1020,15 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -946,7 +1036,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -954,7 +1044,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -962,31 +1052,31 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -994,31 +1084,31 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -1026,55 +1116,191 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B62">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66">
         <v>2</v>
       </c>
     </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A6:B54">
-    <sortCondition ref="A54"/>
+  <sortState ref="A6:B80">
+    <sortCondition ref="A80"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:G3"/>
